--- a/Data Files/TestData/PermisosTestDataLive.xlsx
+++ b/Data Files/TestData/PermisosTestDataLive.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="94">
   <si>
     <t xml:space="preserve">TestCaseId</t>
   </si>
@@ -218,6 +218,90 @@
   </si>
   <si>
     <t>11:51:06.885</t>
+  </si>
+  <si>
+    <t>10/10/2019</t>
+  </si>
+  <si>
+    <t>13:47:42.015</t>
+  </si>
+  <si>
+    <t>http://pregame-support.bminc.eu</t>
+  </si>
+  <si>
+    <t>4fku01</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Windows Server 2016</t>
+  </si>
+  <si>
+    <t>Firefox 69.0.2</t>
+  </si>
+  <si>
+    <t>13:48:06.823</t>
+  </si>
+  <si>
+    <t>13:48:06.855</t>
+  </si>
+  <si>
+    <t>13:49:04.135</t>
+  </si>
+  <si>
+    <t>13:49:27.952</t>
+  </si>
+  <si>
+    <t>13:49:27.979</t>
+  </si>
+  <si>
+    <t>13:51:48.433</t>
+  </si>
+  <si>
+    <t>13:51:48.571</t>
+  </si>
+  <si>
+    <t>13:51:48.583</t>
+  </si>
+  <si>
+    <t>13:54:19.105</t>
+  </si>
+  <si>
+    <t>http://10.0.74.5/index/home</t>
+  </si>
+  <si>
+    <t>13:54:19.267</t>
+  </si>
+  <si>
+    <t>13:54:19.275</t>
+  </si>
+  <si>
+    <t>14:09:58.764</t>
+  </si>
+  <si>
+    <t>14:09:58.911</t>
+  </si>
+  <si>
+    <t>14:09:58.927</t>
+  </si>
+  <si>
+    <t>14:12:06.961</t>
+  </si>
+  <si>
+    <t>14:12:07.093</t>
+  </si>
+  <si>
+    <t>14:12:07.104</t>
+  </si>
+  <si>
+    <t>14:13:11.721</t>
+  </si>
+  <si>
+    <t>14:13:11.852</t>
+  </si>
+  <si>
+    <t>14:13:11.861</t>
   </si>
 </sst>
 </file>
@@ -473,32 +557,32 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
